--- a/Sprint_6_backlog.xlsx
+++ b/Sprint_6_backlog.xlsx
@@ -402,8 +402,8 @@
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
